--- a/10_池泉二手车平台/04_项目管理/相关文档/CQJS012019013_功能模块代码清单.xlsx
+++ b/10_池泉二手车平台/04_项目管理/相关文档/CQJS012019013_功能模块代码清单.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="13845" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="功能清单" sheetId="1" r:id="rId1"/>
-    <sheet name="测试记录" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="功能清单(安卓端)" sheetId="1" r:id="rId1"/>
+    <sheet name="功能清单(后台)" sheetId="5" r:id="rId2"/>
+    <sheet name="功能清单(前台)" sheetId="6" r:id="rId3"/>
+    <sheet name="测试记录" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
   <si>
     <t>平台</t>
   </si>
@@ -38,7 +40,7 @@
     <t>手机</t>
   </si>
   <si>
-    <t>登陆模块</t>
+    <t>基本信息模块</t>
   </si>
   <si>
     <t>登陆</t>
@@ -49,6 +51,90 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
+    <t>二手车模块</t>
+  </si>
+  <si>
+    <t>买车</t>
+  </si>
+  <si>
+    <t>卖车</t>
+  </si>
+  <si>
+    <t>车源详情</t>
+  </si>
+  <si>
+    <t>共通模块</t>
+  </si>
+  <si>
+    <t>附件上传</t>
+  </si>
+  <si>
+    <t>附件显示</t>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>登录模块</t>
+  </si>
+  <si>
+    <t>登陆接口</t>
+  </si>
+  <si>
+    <t>src\main\java\com\cqkj\snail\controller\UserController.java</t>
+  </si>
+  <si>
+    <t>注册接口</t>
+  </si>
+  <si>
+    <t>数据字典模块</t>
+  </si>
+  <si>
+    <t>增删改查接口</t>
+  </si>
+  <si>
+    <t>src\main\java\com\cqkj\snail\controller\DictController.java</t>
+  </si>
+  <si>
+    <t>地域模块</t>
+  </si>
+  <si>
+    <t>src\main\java\com\cqkj\snail\controller\AreaController.java</t>
+  </si>
+  <si>
+    <t>车源列表接口</t>
+  </si>
+  <si>
+    <t>src\main\java\com\cqkj\snail\controller\TruckController.java</t>
+  </si>
+  <si>
+    <t>车源详情接口</t>
+  </si>
+  <si>
+    <t>卖车接口</t>
+  </si>
+  <si>
+    <t>附件下载</t>
+  </si>
+  <si>
+    <t>src\main\java\com\cqkj\snail\controller\AttachController.java</t>
+  </si>
+  <si>
+    <t>附件地址获取</t>
+  </si>
+  <si>
+    <t>登陆模块</t>
   </si>
   <si>
     <t>外出服务模块</t>
@@ -149,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,15 +264,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,14 +317,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -232,14 +349,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,24 +387,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,37 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -342,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +675,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -603,17 +704,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,35 +771,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,149 +779,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +1001,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,10 +1384,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1302,11 +1421,492 @@
       </c>
     </row>
     <row r="3" ht="27" spans="2:7">
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="12"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12"/>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="73.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="73.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="27" spans="2:7">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="12"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="12"/>
+      <c r="C6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="12"/>
+      <c r="C7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="34">
+        <v>4.1</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="12"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34">
+        <v>4.3</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12"/>
+      <c r="C10" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5.1</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D7:D9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="73.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="73.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="27" spans="2:7">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="2:7">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9">
         <v>1.1</v>
@@ -1360,7 +1960,7 @@
     <row r="7" spans="2:7">
       <c r="B7" s="7"/>
       <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -1434,7 +2034,7 @@
     <row r="13" spans="2:7">
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -1508,7 +2108,7 @@
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -1533,10 +2133,10 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="19" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -1586,7 +2186,7 @@
     <row r="25" spans="2:7">
       <c r="B25" s="21"/>
       <c r="C25" s="24" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
@@ -1626,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E25"/>
@@ -1651,13 +2251,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1676,7 +2276,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1687,7 +2287,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1698,7 +2298,7 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1709,7 +2309,7 @@
         <v>2.1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1720,7 +2320,7 @@
         <v>2.2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1731,7 +2331,7 @@
         <v>2.3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1742,7 +2342,7 @@
         <v>2.4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1753,7 +2353,7 @@
         <v>2.5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1764,7 +2364,7 @@
         <v>2.6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1775,7 +2375,7 @@
         <v>3.1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1786,7 +2386,7 @@
         <v>3.2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1797,7 +2397,7 @@
         <v>3.3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1808,7 +2408,7 @@
         <v>3.4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1819,7 +2419,7 @@
         <v>3.5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1830,7 +2430,7 @@
         <v>3.6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1841,7 +2441,7 @@
         <v>4.1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1852,7 +2452,7 @@
         <v>4.2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1863,7 +2463,7 @@
         <v>5.1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1874,7 +2474,7 @@
         <v>5.2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1885,7 +2485,7 @@
         <v>5.3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1896,7 +2496,7 @@
         <v>5.4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1907,7 +2507,7 @@
         <v>5.5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1918,7 +2518,7 @@
         <v>5.6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
